--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -1619,7 +1619,7 @@
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="4">
-        <v>43751.375</v>
+        <v>43752.375</v>
       </c>
       <c r="C3" t="s" s="3">
         <v>4</v>
@@ -1634,7 +1634,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="4">
-        <v>43751.458333333336</v>
+        <v>43752.458333333336</v>
       </c>
       <c r="C4" t="s" s="3">
         <v>5</v>
@@ -1653,7 +1653,7 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="4">
-        <v>43751.833333333336</v>
+        <v>43752.833333333336</v>
       </c>
       <c r="C5" t="s" s="3">
         <v>7</v>
@@ -1672,7 +1672,7 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="4">
-        <v>43752.375</v>
+        <v>43753.375</v>
       </c>
       <c r="C6" t="s" s="3">
         <v>9</v>
@@ -1691,7 +1691,7 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="4">
-        <v>43752.833333333336</v>
+        <v>43753.833333333336</v>
       </c>
       <c r="C7" t="s" s="3">
         <v>11</v>
@@ -1706,7 +1706,7 @@
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="4">
-        <v>43753.375</v>
+        <v>43754.375</v>
       </c>
       <c r="C8" t="s" s="3">
         <v>12</v>
@@ -1721,7 +1721,7 @@
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="4">
-        <v>43753.833333333336</v>
+        <v>43754.833333333336</v>
       </c>
       <c r="C9" t="s" s="3">
         <v>13</v>
@@ -1736,7 +1736,7 @@
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="4">
-        <v>43754.833333333336</v>
+        <v>43755.833333333336</v>
       </c>
       <c r="C10" t="s" s="3">
         <v>14</v>
@@ -1755,7 +1755,7 @@
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4">
-        <v>43755.375</v>
+        <v>43756.375</v>
       </c>
       <c r="C11" t="s" s="3">
         <v>16</v>
@@ -1849,7 +1849,7 @@
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="13">
-        <v>43751</v>
+        <v>43752</v>
       </c>
       <c r="C3" t="s" s="3">
         <v>24</v>
@@ -1864,17 +1864,17 @@
         <v>26</v>
       </c>
       <c r="G3" s="5">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="H3" s="15">
         <f>G3*E3</f>
-        <v>760</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="13">
-        <v>43751</v>
+        <v>43752</v>
       </c>
       <c r="C4" t="s" s="3">
         <v>27</v>
@@ -1897,7 +1897,7 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="13">
-        <v>43751</v>
+        <v>43752</v>
       </c>
       <c r="C5" t="s" s="3">
         <v>29</v>
@@ -1922,7 +1922,7 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="13">
-        <v>43751</v>
+        <v>43752</v>
       </c>
       <c r="C6" t="s" s="3">
         <v>32</v>
@@ -1947,7 +1947,7 @@
     <row r="7" ht="27" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="C7" t="s" s="3">
         <v>29</v>
@@ -1972,7 +1972,7 @@
     <row r="8" ht="27" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="C8" t="s" s="3">
         <v>29</v>
@@ -1995,7 +1995,7 @@
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13">
-        <v>43752</v>
+        <v>43754</v>
       </c>
       <c r="C9" t="s" s="3">
         <v>32</v>
@@ -2020,7 +2020,7 @@
     <row r="10" ht="39" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="13">
-        <v>43753</v>
+        <v>43754</v>
       </c>
       <c r="C10" t="s" s="3">
         <v>29</v>
@@ -2045,7 +2045,7 @@
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="13">
-        <v>43753</v>
+        <v>43754</v>
       </c>
       <c r="C11" t="s" s="3">
         <v>32</v>
@@ -2070,7 +2070,7 @@
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="13">
-        <v>43754</v>
+        <v>43755</v>
       </c>
       <c r="C12" t="s" s="3">
         <v>32</v>
@@ -2095,7 +2095,7 @@
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="13">
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="C13" t="s" s="3">
         <v>27</v>
@@ -2127,7 +2127,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="15">
         <f>SUM(H3:H13)</f>
-        <v>2386</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1">
